--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r106_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r106_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4632" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +153,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +183,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="6" customFormat="true">
+      <c r="A1" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="6">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +230,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +276,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -361,10 +385,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -408,28 +432,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="C10" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -454,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="I12" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -563,10 +587,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="2" t="s">
+      <c r="J15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -610,28 +634,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="2">
+      <c r="A17" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s" s="2">
+      <c r="C17" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -656,28 +680,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="2">
+      <c r="I19" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -794,10 +818,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="2" t="s">
+      <c r="J23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -841,28 +865,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="2">
+      <c r="A25" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s" s="2">
+      <c r="C25" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -887,28 +911,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="2">
+      <c r="C27" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="2">
+      <c r="D27" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="2">
+      <c r="I27" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -996,10 +1020,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="J30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1043,28 +1067,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="2">
+      <c r="A32" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s" s="2">
+      <c r="C32" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1089,28 +1113,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="2">
+      <c r="C34" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="2">
+      <c r="D34" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="2">
+      <c r="I34" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1198,10 +1222,10 @@
       <c r="I37">
         <f>((C37-C36)^2+(D37- D36)^2)^.5</f>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="2" t="s">
+      <c r="J37" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L37" t="n">
@@ -1245,28 +1269,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="2">
+      <c r="A39" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C39" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s" s="2">
+      <c r="C39" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1291,28 +1315,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C41" t="s" s="2">
+      <c r="C41" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D41" t="s" s="2">
+      <c r="D41" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I41" t="s" s="2">
+      <c r="I41" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1400,10 +1424,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="2" t="s">
+      <c r="J44" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1447,28 +1471,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="2">
+      <c r="A46" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s" s="2">
+      <c r="C46" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1493,28 +1517,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="2">
+      <c r="C48" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="2">
+      <c r="D48" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="2">
+      <c r="I48" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1602,10 +1626,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="2" t="s">
+      <c r="J51" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1649,28 +1673,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="2">
+      <c r="A53" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s" s="2">
+      <c r="C53" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1695,28 +1719,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="2">
+      <c r="C55" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="2">
+      <c r="D55" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="2">
+      <c r="I55" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1804,10 +1828,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K58" s="2" t="s">
+      <c r="J58" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K58" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1851,28 +1875,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="2">
+      <c r="A60" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D60" t="s" s="2">
+      <c r="C60" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1897,28 +1921,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="2">
+      <c r="C62" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="2">
+      <c r="D62" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="2">
+      <c r="I62" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2006,10 +2030,10 @@
       <c r="I65">
         <f>((C65-C64)^2+(D65- D64)^2)^.5</f>
       </c>
-      <c r="J65" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K65" s="2" t="s">
+      <c r="J65" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K65" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L65" t="n">
@@ -2053,28 +2077,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="2">
+      <c r="A67" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C67" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D67" t="s" s="2">
+      <c r="C67" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2099,28 +2123,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C69" t="s" s="2">
+      <c r="C69" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D69" t="s" s="2">
+      <c r="D69" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I69" t="s" s="2">
+      <c r="I69" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2208,10 +2232,10 @@
       <c r="I72">
         <f>((C72-C71)^2+(D72- D71)^2)^.5</f>
       </c>
-      <c r="J72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K72" s="2" t="s">
+      <c r="J72" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L72" t="n">
@@ -2255,28 +2279,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="2">
+      <c r="A74" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C74" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D74" t="s" s="2">
+      <c r="C74" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2301,28 +2325,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C76" t="s" s="2">
+      <c r="C76" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D76" t="s" s="2">
+      <c r="D76" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I76" t="s" s="2">
+      <c r="I76" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2410,10 +2434,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K79" s="2" t="s">
+      <c r="J79" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2457,28 +2481,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="2">
+      <c r="A81" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s" s="2">
+      <c r="C81" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2503,28 +2527,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="2">
+      <c r="C83" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="2">
+      <c r="D83" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="2">
+      <c r="I83" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2612,10 +2636,10 @@
       <c r="I86">
         <f>((C86-C85)^2+(D86- D85)^2)^.5</f>
       </c>
-      <c r="J86" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K86" s="2" t="s">
+      <c r="J86" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K86" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L86" t="n">
@@ -2659,28 +2683,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="2">
+      <c r="A88" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C88" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D88" t="s" s="2">
+      <c r="C88" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2705,28 +2729,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C90" t="s" s="2">
+      <c r="C90" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D90" t="s" s="2">
+      <c r="D90" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I90" t="s" s="2">
+      <c r="I90" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2814,10 +2838,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K93" s="2" t="s">
+      <c r="J93" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K93" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2861,28 +2885,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="2">
+      <c r="A95" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D95" t="s" s="2">
+      <c r="C95" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2907,28 +2931,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="2">
+      <c r="C97" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="2">
+      <c r="D97" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="2">
+      <c r="I97" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3016,10 +3040,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K100" s="2" t="s">
+      <c r="J100" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K100" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3063,28 +3087,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="2">
+      <c r="A102" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D102" t="s" s="2">
+      <c r="C102" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3109,28 +3133,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="2">
+      <c r="C104" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="2">
+      <c r="D104" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="2">
+      <c r="I104" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3218,10 +3242,10 @@
       <c r="I107">
         <f>((C107-C106)^2+(D107- D106)^2)^.5</f>
       </c>
-      <c r="J107" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K107" s="2" t="s">
+      <c r="J107" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K107" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L107" t="n">
@@ -3265,28 +3289,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="2">
+      <c r="A109" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C109" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D109" t="s" s="2">
+      <c r="C109" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3311,28 +3335,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C111" t="s" s="2">
+      <c r="C111" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D111" t="s" s="2">
+      <c r="D111" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I111" t="s" s="2">
+      <c r="I111" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3420,10 +3444,10 @@
       <c r="I114">
         <f>((C114-C113)^2+(D114- D113)^2)^.5</f>
       </c>
-      <c r="J114" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K114" s="2" t="s">
+      <c r="J114" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K114" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L114" t="n">
@@ -3467,28 +3491,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="2">
+      <c r="A116" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C116" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D116" t="s" s="2">
+      <c r="C116" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3513,28 +3537,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C118" t="s" s="2">
+      <c r="C118" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D118" t="s" s="2">
+      <c r="D118" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I118" t="s" s="2">
+      <c r="I118" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3622,10 +3646,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K121" s="2" t="s">
+      <c r="J121" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K121" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3669,28 +3693,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="2">
+      <c r="A123" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D123" t="s" s="2">
+      <c r="C123" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3715,28 +3739,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="2">
+      <c r="C125" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="2">
+      <c r="D125" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="2">
+      <c r="I125" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3853,10 +3877,10 @@
       <c r="I129">
         <f>((C129-C128)^2+(D129- D128)^2)^.5</f>
       </c>
-      <c r="J129" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K129" s="2" t="s">
+      <c r="J129" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K129" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L129" t="n">
@@ -3900,28 +3924,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="s" s="2">
+      <c r="A131" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C131" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D131" t="s" s="2">
+      <c r="C131" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D131" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3946,28 +3970,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C133" t="s" s="2">
+      <c r="C133" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D133" t="s" s="2">
+      <c r="D133" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I133" t="s" s="2">
+      <c r="I133" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4055,10 +4079,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K136" s="2" t="s">
+      <c r="J136" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K136" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4102,28 +4126,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="2">
+      <c r="A138" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D138" t="s" s="2">
+      <c r="C138" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4148,28 +4172,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="2">
+      <c r="C140" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="2">
+      <c r="D140" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="2">
+      <c r="I140" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4257,10 +4281,10 @@
       <c r="I143">
         <f>((C143-C142)^2+(D143- D142)^2)^.5</f>
       </c>
-      <c r="J143" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K143" s="2" t="s">
+      <c r="J143" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K143" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L143" t="n">
@@ -4304,28 +4328,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s" s="2">
+      <c r="A145" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C145" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D145" t="s" s="2">
+      <c r="C145" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D145" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4350,28 +4374,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C147" t="s" s="2">
+      <c r="C147" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D147" t="s" s="2">
+      <c r="D147" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I147" t="s" s="2">
+      <c r="I147" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4459,10 +4483,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="2" t="s">
+      <c r="J150" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4506,28 +4530,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="2">
+      <c r="A152" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="2">
+      <c r="C152" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4552,28 +4576,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="C154" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="2">
+      <c r="D154" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="2">
+      <c r="I154" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4661,10 +4685,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="2" t="s">
+      <c r="J157" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4708,28 +4732,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="2">
+      <c r="A159" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="2">
+      <c r="C159" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4754,28 +4778,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="C161" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="2">
+      <c r="D161" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="2">
+      <c r="I161" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4863,10 +4887,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="2" t="s">
+      <c r="J164" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4910,28 +4934,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="2">
+      <c r="A166" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s" s="2">
+      <c r="C166" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4956,28 +4980,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="2">
+      <c r="C168" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="2">
+      <c r="D168" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="2">
+      <c r="I168" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5065,10 +5089,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K171" s="2" t="s">
+      <c r="J171" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K171" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
@@ -5112,28 +5136,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s" s="2">
+      <c r="A173" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C173" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D173" t="s" s="2">
+      <c r="C173" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D173" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5158,28 +5182,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C175" t="s" s="2">
+      <c r="C175" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D175" t="s" s="2">
+      <c r="D175" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I175" t="s" s="2">
+      <c r="I175" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5267,10 +5291,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K178" s="2" t="s">
+      <c r="J178" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K178" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5314,28 +5338,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="2">
+      <c r="A180" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D180" t="s" s="2">
+      <c r="C180" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D180" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5360,28 +5384,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="2">
+      <c r="C182" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="2">
+      <c r="D182" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="2">
+      <c r="I182" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5469,10 +5493,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K185" s="2" t="s">
+      <c r="J185" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K185" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5516,28 +5540,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="2">
+      <c r="A187" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D187" t="s" s="2">
+      <c r="C187" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D187" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5562,28 +5586,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="2">
+      <c r="C189" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="2">
+      <c r="D189" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="2">
+      <c r="I189" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5671,10 +5695,10 @@
       <c r="I192">
         <f>((C192-C191)^2+(D192- D191)^2)^.5</f>
       </c>
-      <c r="J192" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K192" s="2" t="s">
+      <c r="J192" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K192" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L192" t="n">
@@ -5718,28 +5742,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="2">
+      <c r="A194" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C194" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D194" t="s" s="2">
+      <c r="C194" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5764,28 +5788,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C196" t="s" s="2">
+      <c r="C196" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D196" t="s" s="2">
+      <c r="D196" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I196" t="s" s="2">
+      <c r="I196" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5873,10 +5897,10 @@
       <c r="I199">
         <f>((C199-C198)^2+(D199- D198)^2)^.5</f>
       </c>
-      <c r="J199" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K199" s="2" t="s">
+      <c r="J199" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K199" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L199" t="n">
@@ -5920,28 +5944,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="2">
+      <c r="A201" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C201" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D201" t="s" s="2">
+      <c r="C201" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5966,28 +5990,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C203" t="s" s="2">
+      <c r="C203" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D203" t="s" s="2">
+      <c r="D203" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I203" t="s" s="2">
+      <c r="I203" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6104,10 +6128,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="2" t="s">
+      <c r="J207" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6151,28 +6175,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="2">
+      <c r="A209" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="2">
+      <c r="C209" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6197,28 +6221,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="2">
+      <c r="C211" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="2">
+      <c r="D211" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="2">
+      <c r="I211" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6364,10 +6388,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="2" t="s">
+      <c r="J216" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
@@ -6411,28 +6435,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="2">
+      <c r="A218" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C218" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D218" t="s" s="2">
+      <c r="C218" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6457,28 +6481,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C220" t="s" s="2">
+      <c r="C220" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D220" t="s" s="2">
+      <c r="D220" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I220" t="s" s="2">
+      <c r="I220" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6595,10 +6619,10 @@
       <c r="I224">
         <f>((C224-C223)^2+(D224- D223)^2)^.5</f>
       </c>
-      <c r="J224" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K224" s="2" t="s">
+      <c r="J224" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K224" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L224" t="n">
@@ -6642,28 +6666,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="s" s="2">
+      <c r="A226" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C226" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D226" t="s" s="2">
+      <c r="C226" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D226" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6688,28 +6712,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="B228" t="s" s="2">
+      <c r="B228" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C228" t="s" s="2">
+      <c r="C228" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D228" t="s" s="2">
+      <c r="D228" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E228" t="s" s="2">
+      <c r="E228" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F228" t="s" s="2">
+      <c r="F228" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G228" t="s" s="2">
+      <c r="G228" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H228" t="s" s="2">
+      <c r="H228" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I228" t="s" s="2">
+      <c r="I228" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6797,10 +6821,10 @@
       <c r="I231">
         <f>((C231-C230)^2+(D231- D230)^2)^.5</f>
       </c>
-      <c r="J231" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K231" s="2" t="s">
+      <c r="J231" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K231" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L231" t="n">
@@ -6844,28 +6868,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="s" s="2">
+      <c r="A233" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B233" t="s" s="2">
+      <c r="B233" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C233" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D233" t="s" s="2">
+      <c r="C233" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D233" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E233" t="s" s="2">
+      <c r="E233" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F233" t="s" s="2">
+      <c r="F233" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G233" t="s" s="2">
+      <c r="G233" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H233" t="s" s="2">
+      <c r="H233" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6890,28 +6914,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="B235" t="s" s="2">
+      <c r="B235" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C235" t="s" s="2">
+      <c r="C235" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D235" t="s" s="2">
+      <c r="D235" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E235" t="s" s="2">
+      <c r="E235" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F235" t="s" s="2">
+      <c r="F235" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G235" t="s" s="2">
+      <c r="G235" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H235" t="s" s="2">
+      <c r="H235" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I235" t="s" s="2">
+      <c r="I235" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6999,10 +7023,10 @@
       <c r="I238">
         <f>((C238-C237)^2+(D238- D237)^2)^.5</f>
       </c>
-      <c r="J238" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K238" s="2" t="s">
+      <c r="J238" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K238" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L238" t="n">
@@ -7046,28 +7070,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="s" s="2">
+      <c r="A240" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B240" t="s" s="2">
+      <c r="B240" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C240" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D240" t="s" s="2">
+      <c r="C240" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D240" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E240" t="s" s="2">
+      <c r="E240" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F240" t="s" s="2">
+      <c r="F240" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G240" t="s" s="2">
+      <c r="G240" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H240" t="s" s="2">
+      <c r="H240" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7092,28 +7116,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="B242" t="s" s="2">
+      <c r="B242" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C242" t="s" s="2">
+      <c r="C242" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D242" t="s" s="2">
+      <c r="D242" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E242" t="s" s="2">
+      <c r="E242" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F242" t="s" s="2">
+      <c r="F242" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G242" t="s" s="2">
+      <c r="G242" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H242" t="s" s="2">
+      <c r="H242" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I242" t="s" s="2">
+      <c r="I242" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7230,10 +7254,10 @@
       <c r="I246">
         <f>((C246-C245)^2+(D246- D245)^2)^.5</f>
       </c>
-      <c r="J246" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K246" s="2" t="s">
+      <c r="J246" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K246" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L246" t="n">
@@ -7277,28 +7301,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="s" s="2">
+      <c r="A248" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B248" t="s" s="2">
+      <c r="B248" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C248" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D248" t="s" s="2">
+      <c r="C248" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D248" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E248" t="s" s="2">
+      <c r="E248" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F248" t="s" s="2">
+      <c r="F248" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G248" t="s" s="2">
+      <c r="G248" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H248" t="s" s="2">
+      <c r="H248" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7323,28 +7347,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="B250" t="s" s="2">
+      <c r="B250" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C250" t="s" s="2">
+      <c r="C250" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D250" t="s" s="2">
+      <c r="D250" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E250" t="s" s="2">
+      <c r="E250" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F250" t="s" s="2">
+      <c r="F250" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G250" t="s" s="2">
+      <c r="G250" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H250" t="s" s="2">
+      <c r="H250" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I250" t="s" s="2">
+      <c r="I250" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7461,10 +7485,10 @@
       <c r="I254">
         <f>((C254-C253)^2+(D254- D253)^2)^.5</f>
       </c>
-      <c r="J254" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K254" s="2" t="s">
+      <c r="J254" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K254" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L254" t="n">
@@ -7508,28 +7532,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="s" s="2">
+      <c r="A256" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B256" t="s" s="2">
+      <c r="B256" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C256" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D256" t="s" s="2">
+      <c r="C256" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D256" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E256" t="s" s="2">
+      <c r="E256" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F256" t="s" s="2">
+      <c r="F256" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G256" t="s" s="2">
+      <c r="G256" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H256" t="s" s="2">
+      <c r="H256" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7554,28 +7578,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="B258" t="s" s="2">
+      <c r="B258" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C258" t="s" s="2">
+      <c r="C258" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D258" t="s" s="2">
+      <c r="D258" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E258" t="s" s="2">
+      <c r="E258" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F258" t="s" s="2">
+      <c r="F258" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G258" t="s" s="2">
+      <c r="G258" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H258" t="s" s="2">
+      <c r="H258" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I258" t="s" s="2">
+      <c r="I258" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7692,10 +7716,10 @@
       <c r="I262">
         <f>((C262-C261)^2+(D262- D261)^2)^.5</f>
       </c>
-      <c r="J262" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K262" s="2" t="s">
+      <c r="J262" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K262" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L262" t="n">
@@ -7739,28 +7763,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="s" s="2">
+      <c r="A264" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B264" t="s" s="2">
+      <c r="B264" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C264" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D264" t="s" s="2">
+      <c r="C264" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D264" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E264" t="s" s="2">
+      <c r="E264" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F264" t="s" s="2">
+      <c r="F264" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G264" t="s" s="2">
+      <c r="G264" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H264" t="s" s="2">
+      <c r="H264" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7785,28 +7809,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="B266" t="s" s="2">
+      <c r="B266" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C266" t="s" s="2">
+      <c r="C266" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D266" t="s" s="2">
+      <c r="D266" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E266" t="s" s="2">
+      <c r="E266" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F266" t="s" s="2">
+      <c r="F266" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G266" t="s" s="2">
+      <c r="G266" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H266" t="s" s="2">
+      <c r="H266" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I266" t="s" s="2">
+      <c r="I266" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7894,10 +7918,10 @@
       <c r="I269">
         <f>((C269-C268)^2+(D269- D268)^2)^.5</f>
       </c>
-      <c r="J269" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K269" s="2" t="s">
+      <c r="J269" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K269" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L269" t="n">
@@ -7941,28 +7965,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="s" s="2">
+      <c r="A271" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B271" t="s" s="2">
+      <c r="B271" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C271" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D271" t="s" s="2">
+      <c r="C271" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D271" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E271" t="s" s="2">
+      <c r="E271" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F271" t="s" s="2">
+      <c r="F271" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G271" t="s" s="2">
+      <c r="G271" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H271" t="s" s="2">
+      <c r="H271" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7987,28 +8011,28 @@
       </c>
     </row>
     <row r="273">
-      <c r="B273" t="s" s="2">
+      <c r="B273" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C273" t="s" s="2">
+      <c r="C273" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D273" t="s" s="2">
+      <c r="D273" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E273" t="s" s="2">
+      <c r="E273" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F273" t="s" s="2">
+      <c r="F273" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G273" t="s" s="2">
+      <c r="G273" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H273" t="s" s="2">
+      <c r="H273" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I273" t="s" s="2">
+      <c r="I273" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8154,10 +8178,10 @@
       <c r="I278">
         <f>((C278-C277)^2+(D278- D277)^2)^.5</f>
       </c>
-      <c r="J278" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K278" s="2" t="s">
+      <c r="J278" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K278" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L278" t="n">
@@ -8201,28 +8225,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="s" s="2">
+      <c r="A280" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B280" t="s" s="2">
+      <c r="B280" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C280" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D280" t="s" s="2">
+      <c r="C280" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D280" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E280" t="s" s="2">
+      <c r="E280" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F280" t="s" s="2">
+      <c r="F280" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G280" t="s" s="2">
+      <c r="G280" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H280" t="s" s="2">
+      <c r="H280" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8247,28 +8271,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="B282" t="s" s="2">
+      <c r="B282" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C282" t="s" s="2">
+      <c r="C282" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D282" t="s" s="2">
+      <c r="D282" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E282" t="s" s="2">
+      <c r="E282" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F282" t="s" s="2">
+      <c r="F282" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G282" t="s" s="2">
+      <c r="G282" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H282" t="s" s="2">
+      <c r="H282" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I282" t="s" s="2">
+      <c r="I282" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8356,10 +8380,10 @@
       <c r="I285">
         <f>((C285-C284)^2+(D285- D284)^2)^.5</f>
       </c>
-      <c r="J285" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K285" s="2" t="s">
+      <c r="J285" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K285" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L285" t="n">
@@ -8403,28 +8427,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="s" s="2">
+      <c r="A287" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B287" t="s" s="2">
+      <c r="B287" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C287" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D287" t="s" s="2">
+      <c r="C287" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D287" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E287" t="s" s="2">
+      <c r="E287" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F287" t="s" s="2">
+      <c r="F287" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G287" t="s" s="2">
+      <c r="G287" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H287" t="s" s="2">
+      <c r="H287" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8449,28 +8473,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="B289" t="s" s="2">
+      <c r="B289" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C289" t="s" s="2">
+      <c r="C289" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D289" t="s" s="2">
+      <c r="D289" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E289" t="s" s="2">
+      <c r="E289" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F289" t="s" s="2">
+      <c r="F289" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G289" t="s" s="2">
+      <c r="G289" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H289" t="s" s="2">
+      <c r="H289" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I289" t="s" s="2">
+      <c r="I289" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8703,10 +8727,10 @@
       <c r="I297">
         <f>((C297-C296)^2+(D297- D296)^2)^.5</f>
       </c>
-      <c r="J297" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K297" s="2" t="s">
+      <c r="J297" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K297" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L297" t="n">
@@ -8750,28 +8774,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="s" s="2">
+      <c r="A299" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B299" t="s" s="2">
+      <c r="B299" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C299" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D299" t="s" s="2">
+      <c r="C299" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D299" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E299" t="s" s="2">
+      <c r="E299" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F299" t="s" s="2">
+      <c r="F299" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G299" t="s" s="2">
+      <c r="G299" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H299" t="s" s="2">
+      <c r="H299" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8796,28 +8820,28 @@
       </c>
     </row>
     <row r="301">
-      <c r="B301" t="s" s="2">
+      <c r="B301" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C301" t="s" s="2">
+      <c r="C301" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D301" t="s" s="2">
+      <c r="D301" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E301" t="s" s="2">
+      <c r="E301" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F301" t="s" s="2">
+      <c r="F301" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G301" t="s" s="2">
+      <c r="G301" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H301" t="s" s="2">
+      <c r="H301" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I301" t="s" s="2">
+      <c r="I301" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8905,10 +8929,10 @@
       <c r="I304">
         <f>((C304-C303)^2+(D304- D303)^2)^.5</f>
       </c>
-      <c r="J304" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K304" s="2" t="s">
+      <c r="J304" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K304" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L304" t="n">
@@ -8952,28 +8976,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="s" s="2">
+      <c r="A306" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B306" t="s" s="2">
+      <c r="B306" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C306" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D306" t="s" s="2">
+      <c r="C306" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D306" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E306" t="s" s="2">
+      <c r="E306" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F306" t="s" s="2">
+      <c r="F306" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G306" t="s" s="2">
+      <c r="G306" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H306" t="s" s="2">
+      <c r="H306" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8998,28 +9022,28 @@
       </c>
     </row>
     <row r="308">
-      <c r="B308" t="s" s="2">
+      <c r="B308" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C308" t="s" s="2">
+      <c r="C308" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D308" t="s" s="2">
+      <c r="D308" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E308" t="s" s="2">
+      <c r="E308" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F308" t="s" s="2">
+      <c r="F308" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G308" t="s" s="2">
+      <c r="G308" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H308" t="s" s="2">
+      <c r="H308" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I308" t="s" s="2">
+      <c r="I308" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -9107,10 +9131,10 @@
       <c r="I311">
         <f>((C311-C310)^2+(D311- D310)^2)^.5</f>
       </c>
-      <c r="J311" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K311" s="2" t="s">
+      <c r="J311" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K311" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L311" t="n">
